--- a/raw_data/unifying_column_names_TO_DELETE_LATER.xlsx
+++ b/raw_data/unifying_column_names_TO_DELETE_LATER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herrmannV\Dropbox (Smithsonian)\GitHub\SCBI-ForestGEO\SCBImortality\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769727CA-D022-4169-B872-8E4CD8E5D1A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE9FCCD-0BFF-42EF-A58C-2D8CE57E776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9ACB84A1-0168-48EE-93D2-52DACEF4534B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="93">
   <si>
     <t>as</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>dead_with_resprout</t>
+  </si>
+  <si>
+    <t>notes.2022</t>
+  </si>
+  <si>
+    <t>status.2022</t>
   </si>
 </sst>
 </file>
@@ -658,21 +664,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5D15AF-7CDB-4974-BBA6-3A77BDD4939A}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.81640625" customWidth="1"/>
+    <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -700,17 +707,20 @@
       <c r="I1">
         <v>2021</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1">
+        <v>2022</v>
+      </c>
+      <c r="K1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -738,17 +748,20 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>88</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -776,11 +789,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -808,11 +824,14 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -840,11 +859,14 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -872,17 +894,20 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>89</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -910,11 +935,14 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -942,11 +970,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -974,11 +1005,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1006,11 +1040,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1038,11 +1075,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1070,11 +1110,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1102,11 +1145,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1134,11 +1180,14 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1166,11 +1215,14 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1198,11 +1250,14 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1230,17 +1285,20 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
         <v>88</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1268,14 +1326,17 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>9</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1303,11 +1364,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1335,11 +1399,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1367,8 +1434,11 @@
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1396,11 +1466,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1428,11 +1501,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1460,11 +1536,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1492,11 +1571,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1524,11 +1606,14 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1556,11 +1641,14 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1588,11 +1676,14 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1620,11 +1711,14 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1652,11 +1746,14 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1684,11 +1781,14 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1716,11 +1816,14 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1748,11 +1851,14 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1780,11 +1886,14 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1812,11 +1921,14 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1844,17 +1956,20 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
         <v>88</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>86</v>
       </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1882,11 +1997,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1914,17 +2032,20 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
         <v>36</v>
-      </c>
-      <c r="K38" t="s">
-        <v>86</v>
       </c>
       <c r="L38" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1952,17 +2073,20 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
         <v>80</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>86</v>
       </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1990,11 +2114,14 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2022,11 +2149,14 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2054,14 +2184,17 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
         <v>79</v>
       </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2089,14 +2222,17 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
         <v>79</v>
       </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2124,19 +2260,22 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
         <v>89</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>86</v>
       </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2151,864 +2290,939 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" t="s">
-        <v>88</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>89</v>
       </c>
       <c r="L45" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>88</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
         <v>87</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
         <v>49</v>
-      </c>
-      <c r="K50" t="s">
-        <v>86</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>49</v>
-      </c>
-      <c r="K51" t="s">
-        <v>86</v>
       </c>
       <c r="L51" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>49</v>
+      </c>
+      <c r="L52" t="s">
+        <v>86</v>
+      </c>
+      <c r="M52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
         <v>88</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L53" t="s">
         <v>86</v>
       </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
         <v>88</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L54" t="s">
         <v>86</v>
       </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
         <v>53</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L56" t="s">
         <v>86</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M56" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
         <v>53</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
         <v>88</v>
       </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
         <v>65</v>
       </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
         <v>65</v>
-      </c>
-      <c r="K67" t="s">
-        <v>86</v>
-      </c>
-      <c r="L67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>67</v>
-      </c>
-      <c r="K69" t="s">
-        <v>86</v>
       </c>
       <c r="L69" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3034,110 +3248,113 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>67</v>
       </c>
-      <c r="K70" t="s">
-        <v>86</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
         <v>67</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
       </c>
       <c r="L71" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72" t="s">
-        <v>70</v>
+      <c r="J72">
+        <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L72" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3148,197 +3365,297 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73" t="s">
-        <v>88</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>67</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>88</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>70</v>
       </c>
       <c r="L74" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>88</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>88</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
         <v>89</v>
       </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
         <v>89</v>
       </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77" t="s">
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
         <v>89</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" t="s">
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80" t="s">
         <v>86</v>
       </c>
     </row>
